--- a/assets/excel/2021_7-1-1.xlsx
+++ b/assets/excel/2021_7-1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E2819C-5790-473B-948D-85333330389E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B5221D-1313-4497-9322-EFB03801B733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{AA2F02AC-65ED-4A25-A47E-9D17963E32A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11208" xr2:uid="{AA2F02AC-65ED-4A25-A47E-9D17963E32A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,11 +207,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="6"/>
       <color theme="10"/>
@@ -379,92 +374,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -787,17 +786,17 @@
       <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -812,7 +811,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -826,7 +825,7 @@
       <c r="J3" s="6"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -840,7 +839,7 @@
       <c r="J4" s="8"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -852,307 +851,307 @@
       <c r="J5" s="8"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20" t="s">
+    <row r="8" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="11">
         <v>5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="11">
         <v>6</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="12">
         <v>7</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="13">
         <v>2018</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="15">
         <v>53.8</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="15">
         <v>55.7</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="16">
         <v>42.6</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="16">
+        <v>47</v>
+      </c>
+      <c r="I10" s="16">
         <v>36.4</v>
       </c>
-      <c r="I10" s="27">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+    </row>
+    <row r="11" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="13">
         <v>2018</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="17">
         <v>6.71</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="17">
         <v>6.57</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="17">
         <v>7.03</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="17">
+        <v>7.08</v>
+      </c>
+      <c r="I11" s="17">
         <v>6.92</v>
       </c>
-      <c r="I11" s="28">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+    </row>
+    <row r="12" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="19">
         <v>2014</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="15">
         <v>48.7</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="15">
         <v>51.6</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="15">
         <v>35.4</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="15">
+        <v>38.4</v>
+      </c>
+      <c r="I12" s="15">
         <v>29</v>
       </c>
-      <c r="I12" s="26">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+    </row>
+    <row r="13" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="19">
         <v>2014</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="20">
         <v>6.32</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="20">
         <v>6.22</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="20">
         <v>6.6</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="20">
+        <v>6.66</v>
+      </c>
+      <c r="I13" s="20">
         <v>6.46</v>
       </c>
-      <c r="I13" s="31">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+    </row>
+    <row r="14" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="18">
         <v>2010</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="15">
         <v>49.110500000000002</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="15">
         <v>52.051299999999998</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="15">
         <v>34.685299999999998</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="21">
+        <v>37.497799999999998</v>
+      </c>
+      <c r="I14" s="21">
         <v>28.503</v>
       </c>
-      <c r="I14" s="32">
-        <v>37.497799999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+    </row>
+    <row r="15" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="18">
         <v>2010</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="20">
         <v>6.0448000000000004</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="20">
         <v>5.9649000000000001</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="20">
         <v>6.2743000000000002</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="22">
+        <v>6.3148</v>
+      </c>
+      <c r="I15" s="22">
         <v>6.1745000000000001</v>
       </c>
-      <c r="I15" s="33">
-        <v>6.3148</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+    </row>
+    <row r="16" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37"/>
     </row>
-    <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="38" t="s">
         <v>24</v>
       </c>
@@ -1172,5 +1171,6 @@
     <hyperlink ref="B27" r:id="rId1" xr:uid="{0A7CAEF4-B56A-4B73-B4C2-35727BDAC6EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>